--- a/info/Design_experiments.xlsx
+++ b/info/Design_experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/hyjiang_dundee_ac_uk/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MGierlinski/Work/Projects/NCCProt/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{5E967724-9154-4847-83AD-210C912592B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6A08DD1-65CF-40B3-93EA-07608748944C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E613B77-28F1-3746-A351-55FC8297F6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E3A6127A-0016-0143-8635-61EDB91F9D25}"/>
+    <workbookView xWindow="8420" yWindow="1160" windowWidth="29040" windowHeight="25300" xr2:uid="{E3A6127A-0016-0143-8635-61EDB91F9D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
@@ -716,24 +716,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AE7BCD-536C-EC44-BBCE-0E3BE6E6495C}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="5" width="6.296875" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" customWidth="1"/>
     <col min="6" max="7" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -847,7 +847,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -885,7 +885,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -923,7 +923,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -961,7 +961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -999,7 +999,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -3050,6 +3050,45 @@
       <c r="L61" s="2">
         <v>131</v>
       </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K71" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3060,17 +3099,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414C4C5B-E2AC-E34D-B38E-76B4E636C38D}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.296875" customWidth="1"/>
-    <col min="10" max="10" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3105,7 +3144,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3140,7 +3179,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3175,7 +3214,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -3210,7 +3249,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3245,7 +3284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -3280,7 +3319,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -3315,7 +3354,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -3350,7 +3389,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -3385,7 +3424,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3420,7 +3459,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -3455,7 +3494,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3490,7 +3529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -3525,7 +3564,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -3560,7 +3599,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -3595,7 +3634,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -3630,7 +3669,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -3665,7 +3704,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -3700,7 +3739,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -3735,7 +3774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -3770,7 +3809,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -3805,7 +3844,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -3840,7 +3879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J23" t="s">
         <v>106</v>
       </c>
